--- a/biology/Zoologie/Guit-guit_à_bec_court/Guit-guit_à_bec_court.xlsx
+++ b/biology/Zoologie/Guit-guit_à_bec_court/Guit-guit_à_bec_court.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guit-guit_%C3%A0_bec_court</t>
+          <t>Guit-guit_à_bec_court</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanerpes nitidus
 Le Guit-guit à bec court (Cyanerpes nitidus) est une espèce de Guit-guit, petit passereau de la famille des Thraupidae. Son aire de répartition s'étend sur la Colombie, Équateur, le Pérou, la Bolivie, le Brésil, le Venezuela et le Suriname.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guit-guit_%C3%A0_bec_court</t>
+          <t>Guit-guit_à_bec_court</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[1] : Bolivie, Brésil, Colombie, Pérou, Suriname, Venezuela, Équateur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Bolivie, Brésil, Colombie, Pérou, Suriname, Venezuela, Équateur.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guit-guit_%C3%A0_bec_court</t>
+          <t>Guit-guit_à_bec_court</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cyanerpes nitidus (Hartlaub, 1847)[2].
-Cyanerpes nitidus a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cyanerpes nitidus (Hartlaub, 1847).
+Cyanerpes nitidus a pour synonyme :
 Coereba nitida Hartlaub, 1847</t>
         </is>
       </c>
